--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3U3I3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/1U3U3I3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC57F82-A61C-4B6E-AA08-B449F83412DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D5C210-7DB6-48E5-B356-71AFB26BA829}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -1573,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B61E7EA-EDCE-4BAB-8060-D0FD550ED85E}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -1645,8 +1645,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1699,7 @@
         <v>87</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,42 +2022,42 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>10</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>12</v>
+      <c r="B4" s="2">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,13 +2065,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,13 +2079,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,13 +2093,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,13 +2107,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,13 +2121,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,13 +2149,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,13 +2163,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,13 +2177,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
